--- a/WIP/Documents/ThietBi/NghienCuuThietBI.xlsx
+++ b/WIP/Documents/ThietBi/NghienCuuThietBI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>STT</t>
   </si>
@@ -200,6 +200,21 @@
   <si>
     <t>GRENTECH</t>
   </si>
+  <si>
+    <t>Lắp đặt</t>
+  </si>
+  <si>
+    <t>1. Bắt vít gắn tường</t>
+  </si>
+  <si>
+    <t>1. Cảnh báo chống trộm</t>
+  </si>
+  <si>
+    <t>Minh</t>
+  </si>
+  <si>
+    <t>Đạo</t>
+  </si>
 </sst>
 </file>
 
@@ -207,7 +222,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_([$VND]\ * #,##0_);_([$VND]\ * \(#,##0\);_([$VND]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_([$VND]\ * #,##0_);_([$VND]\ * \(#,##0\);_([$VND]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -294,7 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -792,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,16 +820,57 @@
     <col min="3" max="3" width="33.140625" customWidth="1"/>
     <col min="4" max="4" width="37.85546875" customWidth="1"/>
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="7" width="48.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="23.7109375" customWidth="1"/>
+    <col min="6" max="7" width="31" customWidth="1"/>
+    <col min="8" max="8" width="48.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,25 +890,28 @@
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -867,28 +926,31 @@
         <v>500000</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="7">
+      <c r="L3" s="7">
         <v>12</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -905,26 +967,27 @@
       <c r="F4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="7">
+      <c r="L4" s="7">
         <v>12</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -941,26 +1004,27 @@
       <c r="F5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="7">
+      <c r="L5" s="7">
         <v>12</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="M5" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -977,26 +1041,27 @@
       <c r="F6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="7">
+      <c r="L6" s="7">
         <v>12</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="M6" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1012,17 +1077,18 @@
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7" t="s">
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="9"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1035,8 +1101,9 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1049,13 +1116,14 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L3" r:id="rId1"/>
-    <hyperlink ref="L4" r:id="rId2"/>
-    <hyperlink ref="L5" r:id="rId3"/>
-    <hyperlink ref="L6" r:id="rId4"/>
+    <hyperlink ref="M3" r:id="rId1"/>
+    <hyperlink ref="M4" r:id="rId2"/>
+    <hyperlink ref="M5" r:id="rId3"/>
+    <hyperlink ref="M6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId5"/>
